--- a/Document/Book1.xlsx
+++ b/Document/Book1.xlsx
@@ -248,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -268,9 +268,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
@@ -580,7 +577,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,17 +589,15 @@
     <col min="4" max="4" customWidth="true" style="3" width="10.42578125" collapsed="false"/>
     <col min="5" max="5" customWidth="true" style="3" width="9.5703125" collapsed="false"/>
     <col min="6" max="6" customWidth="true" style="3" width="10.28515625" collapsed="false"/>
-    <col min="7" max="12" style="3" width="9.140625" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="3" width="8.85546875" collapsed="false"/>
-    <col min="14" max="16384" style="3" width="9.140625" collapsed="false"/>
+    <col min="7" max="16384" style="3" width="9.140625" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -616,38 +611,38 @@
         <v>42175</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="11">
         <v>42170</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="11">
         <v>42171</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>42172</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="11">
         <v>42173</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <v>42174</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="11">
         <v>42175</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="11">
         <v>42176</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="14"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="18"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="7" t="s">
         <v>2</v>
       </c>
@@ -670,11 +665,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>101</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -695,9 +690,9 @@
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="11" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="15"/>
+      <c r="B7" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="8"/>
@@ -708,9 +703,9 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="11" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="8"/>
@@ -720,11 +715,10 @@
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
-      <c r="J8" s="10"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="11" t="s">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="15"/>
+      <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="8"/>
@@ -734,11 +728,10 @@
       <c r="G9" s="8"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="11" t="s">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="8"/>
@@ -748,11 +741,10 @@
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-      <c r="J10" s="10"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="11" t="s">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="8"/>
@@ -762,13 +754,12 @@
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
-      <c r="J11" s="10"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>213</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="8"/>
@@ -778,11 +769,10 @@
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
-      <c r="J12" s="10"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="11" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -802,11 +792,10 @@
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="10"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="11" t="s">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="8"/>
@@ -816,25 +805,22 @@
       <c r="G14" s="8"/>
       <c r="H14" s="9"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="10"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="16"/>
-      <c r="B15" s="11" t="s">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="10"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="11" t="s">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="8"/>
@@ -846,8 +832,8 @@
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="8"/>
@@ -859,10 +845,10 @@
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
+      <c r="A18" s="14">
         <v>310</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="8"/>
@@ -874,8 +860,8 @@
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="15"/>
+      <c r="B19" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="8"/>
@@ -887,8 +873,8 @@
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="15"/>
+      <c r="B20" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="8"/>
@@ -900,8 +886,8 @@
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="16"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C21" s="8"/>
@@ -913,8 +899,8 @@
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="16"/>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="8"/>
@@ -926,8 +912,8 @@
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="16"/>
+      <c r="B23" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -949,10 +935,10 @@
       <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="15">
+      <c r="A24" s="14">
         <v>312</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="8"/>
@@ -964,8 +950,8 @@
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="15"/>
+      <c r="B25" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -987,8 +973,8 @@
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="8"/>
@@ -1000,8 +986,8 @@
       <c r="I26" s="9"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="16"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -1023,8 +1009,8 @@
       <c r="I27" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -1046,8 +1032,8 @@
       <c r="I28" s="9"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="8"/>
@@ -1059,10 +1045,10 @@
       <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="15">
+      <c r="A30" s="14">
         <v>403</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="8"/>
@@ -1074,8 +1060,8 @@
       <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="16"/>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="8"/>
@@ -1087,8 +1073,8 @@
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="16"/>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -1110,8 +1096,8 @@
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="16"/>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="15"/>
+      <c r="B33" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="8"/>
@@ -1123,8 +1109,8 @@
       <c r="I33" s="9"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="16"/>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="15"/>
+      <c r="B34" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C34" s="8"/>
@@ -1136,8 +1122,8 @@
       <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="16"/>
+      <c r="B35" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="8"/>
@@ -1149,10 +1135,10 @@
       <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="15">
+      <c r="A36" s="14">
         <v>407</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="8"/>
@@ -1164,8 +1150,8 @@
       <c r="I36" s="9"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="16"/>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="15"/>
+      <c r="B37" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="8"/>
@@ -1177,8 +1163,8 @@
       <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="15"/>
+      <c r="B38" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="8"/>
@@ -1190,8 +1176,8 @@
       <c r="I38" s="9"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="11" t="s">
+      <c r="A39" s="15"/>
+      <c r="B39" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C39" s="8"/>
@@ -1203,8 +1189,8 @@
       <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="15"/>
+      <c r="B40" s="10" t="s">
         <v>11</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -1226,8 +1212,8 @@
       <c r="I40" s="9"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="16"/>
+      <c r="B41" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="8" t="s">

--- a/Document/Book1.xlsx
+++ b/Document/Book1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Htang\Desktop\"/>
     </mc:Choice>
@@ -14,9 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="14">
   <si>
     <t>SCHEDULE OF SUMMER 2015 SEMESTER</t>
   </si>
@@ -72,8 +75,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,8 +303,36 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -583,13 +613,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="9.140625" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="11.7109375" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="3" width="10.140625" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="3" width="10.42578125" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="3" width="9.5703125" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="3" width="10.28515625" collapsed="false"/>
-    <col min="7" max="16384" style="3" width="9.140625" collapsed="false"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="11.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.25" x14ac:dyDescent="0.25">
@@ -602,13 +632,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>42170</v>
+        <v>42184</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D2" s="2">
-        <v>42175</v>
+        <v>42190</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -619,25 +649,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="11">
-        <v>42170</v>
+        <v>42198</v>
       </c>
       <c r="D4" s="11">
-        <v>42171</v>
+        <v>42199</v>
       </c>
       <c r="E4" s="11">
-        <v>42172</v>
+        <v>42200</v>
       </c>
       <c r="F4" s="11">
-        <v>42173</v>
+        <v>42201</v>
       </c>
       <c r="G4" s="11">
-        <v>42174</v>
+        <v>42202</v>
       </c>
       <c r="H4" s="11">
-        <v>42175</v>
+        <v>42203</v>
       </c>
       <c r="I4" s="11">
-        <v>42176</v>
+        <v>42204</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1216,21 +1246,11 @@
       <c r="B41" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>13</v>
-      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
     </row>

--- a/Document/Book1.xlsx
+++ b/Document/Book1.xlsx
@@ -47,28 +47,28 @@
     <t>From:</t>
   </si>
   <si>
-    <t>8:45 - 10:15</t>
-  </si>
-  <si>
-    <t>7:00 - 08:30</t>
-  </si>
-  <si>
-    <t>10:30 - 12:00</t>
-  </si>
-  <si>
-    <t>12:30 - 14:00</t>
-  </si>
-  <si>
-    <t>16:00 - 17:30</t>
-  </si>
-  <si>
-    <t>14:15 - 15:45</t>
-  </si>
-  <si>
     <t>To:</t>
   </si>
   <si>
     <t>KhanhKT</t>
+  </si>
+  <si>
+    <t>7:00:00 - 08:30:00</t>
+  </si>
+  <si>
+    <t>8:45:00 - 10:15:00</t>
+  </si>
+  <si>
+    <t>10:30:00 - 12:00:00</t>
+  </si>
+  <si>
+    <t>12:30:00 - 14:00:00</t>
+  </si>
+  <si>
+    <t>14:15:00 - 15:45:00</t>
+  </si>
+  <si>
+    <t>16:00:00 - 17:30:00</t>
   </si>
 </sst>
 </file>
@@ -609,12 +609,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="3"/>
-    <col min="2" max="2" width="11.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.140625" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="3" customWidth="1"/>
@@ -635,7 +637,7 @@
         <v>42184</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2">
         <v>42190</v>
@@ -649,25 +651,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="11">
-        <v>42198</v>
+        <v>42191</v>
       </c>
       <c r="D4" s="11">
-        <v>42199</v>
+        <v>42192</v>
       </c>
       <c r="E4" s="11">
-        <v>42200</v>
+        <v>42193</v>
       </c>
       <c r="F4" s="11">
-        <v>42201</v>
+        <v>42194</v>
       </c>
       <c r="G4" s="11">
-        <v>42202</v>
+        <v>42195</v>
       </c>
       <c r="H4" s="11">
-        <v>42203</v>
+        <v>42196</v>
       </c>
       <c r="I4" s="11">
-        <v>42204</v>
+        <v>42197</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -700,22 +702,22 @@
         <v>101</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
@@ -723,7 +725,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15"/>
       <c r="B7" s="10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -736,7 +738,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -749,7 +751,7 @@
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="15"/>
       <c r="B9" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -762,7 +764,7 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -775,7 +777,7 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="16"/>
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -790,7 +792,7 @@
         <v>213</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -803,22 +805,22 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
@@ -826,7 +828,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -839,7 +841,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -851,7 +853,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
@@ -864,7 +866,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
@@ -879,7 +881,7 @@
         <v>310</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -892,7 +894,7 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
       <c r="B19" s="10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -905,7 +907,7 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -918,7 +920,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
       <c r="B21" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="8"/>
@@ -931,7 +933,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="8"/>
@@ -944,7 +946,7 @@
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>3</v>
@@ -969,7 +971,7 @@
         <v>312</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -982,7 +984,7 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>3</v>
@@ -1005,7 +1007,7 @@
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -1018,22 +1020,22 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9"/>
@@ -1041,7 +1043,7 @@
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C28" s="8" t="s">
         <v>3</v>
@@ -1064,7 +1066,7 @@
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -1079,7 +1081,7 @@
         <v>403</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1092,7 +1094,7 @@
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -1105,7 +1107,7 @@
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>3</v>
@@ -1128,7 +1130,7 @@
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -1141,7 +1143,7 @@
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1154,7 +1156,7 @@
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="16"/>
       <c r="B35" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1169,7 +1171,7 @@
         <v>407</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -1182,7 +1184,7 @@
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -1195,7 +1197,7 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -1208,7 +1210,7 @@
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1221,22 +1223,22 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
@@ -1244,7 +1246,7 @@
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="16"/>
       <c r="B41" s="10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
